--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP MedicationRequest DosageInstruction UsageDuration Extension</t>
+    <t>JP Core MedicationRequest DosageInstruction UsageDuration Extension</t>
   </si>
   <si>
     <t>Status</t>
@@ -827,7 +827,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -818,39 +818,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.08203125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="68.94921875" customWidth="true" bestFit="true"/>
   </cols>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -256,8 +256,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -312,13 +312,13 @@
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -337,7 +337,7 @@
     <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -351,13 +351,13 @@
 user content</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].value</t>
@@ -370,10 +370,10 @@
 </t>
   </si>
   <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -389,22 +389,22 @@
 </t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -425,7 +425,7 @@
     <t>「日」で固定される</t>
   </si>
   <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -446,7 +446,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -471,10 +471,10 @@
     <t>単位コードUCUMにおける実投与日数の単位。dで固定される</t>
   </si>
   <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -827,7 +827,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.8125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -840,7 +840,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.171875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -256,8 +256,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -312,13 +312,13 @@
 </t>
   </si>
   <si>
-    <t>拡張機能の意味を識別します / identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>拡張コードの定義のソース - 論理名またはURL。 / Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>定義は、拡張性コードの計算可能または人間が読み取る可能性のある定義を直接指している場合があります。または、他の仕様で宣言されているように、論理的なURIである場合があります。定義は、拡張機能を定義する構造定義のURIでなければなりません。 / The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -337,7 +337,7 @@
     <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -351,13 +351,13 @@
 user content</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extension.value[x].value</t>
@@ -370,10 +370,10 @@
 </t>
   </si>
   <si>
-    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -389,22 +389,22 @@
 </t>
   </si>
   <si>
-    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
+    <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -425,7 +425,7 @@
     <t>「日」で固定される</t>
   </si>
   <si>
-    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -446,7 +446,7 @@
     <t>単位コード UCUMを識別するURI。固定値。</t>
   </si>
   <si>
-    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
+    <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -471,10 +471,10 @@
     <t>単位コードUCUMにおける実投与日数の単位。dで固定される</t>
   </si>
   <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>d</t>
@@ -827,7 +827,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -840,7 +840,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="70.171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -725,9 +725,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>隔日投与など、服⽤開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使用する拡張</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>実投与日数</t>
+  </si>
+  <si>
+    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -263,20 +269,20 @@
     <t>Extension.id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>エレメント間参照のためのID</t>
-  </si>
-  <si>
-    <t>JP Coreでは使用されない。</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>n/a</t>
@@ -331,12 +337,6 @@
 </t>
   </si>
   <si>
-    <t>実投与日数</t>
-  </si>
-  <si>
-    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -344,6 +344,12 @@
     <t>Extension.value[x].id</t>
   </si>
   <si>
+    <t>エレメント間参照のためのID</t>
+  </si>
+  <si>
+    <t>JP Coreでは使用されない。</t>
+  </si>
+  <si>
     <t>Extension.value[x].extension</t>
   </si>
   <si>
@@ -422,13 +428,13 @@
     <t>実投与日数単位</t>
   </si>
   <si>
-    <t>「日」で固定される</t>
+    <t>「Day」で固定される</t>
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>日</t>
+    <t>day</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -825,7 +831,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -991,10 +997,10 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1054,10 +1060,10 @@
         <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -1065,7 +1071,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1076,7 +1082,7 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>76</v>
@@ -1088,13 +1094,13 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1145,13 +1151,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1160,12 +1166,12 @@
         <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1188,13 +1194,13 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1233,19 +1239,19 @@
         <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>77</v>
@@ -1257,7 +1263,7 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1265,7 +1271,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1273,10 +1279,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>76</v>
@@ -1288,16 +1294,16 @@
         <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1347,13 +1353,13 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -1362,12 +1368,12 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1378,7 +1384,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -1390,13 +1396,13 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1447,13 +1453,13 @@
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
@@ -1462,7 +1468,7 @@
         <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -1478,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -1490,13 +1496,13 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1547,13 +1553,13 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -1562,16 +1568,16 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1590,16 +1596,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1637,19 +1643,19 @@
         <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -1661,15 +1667,15 @@
         <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1677,10 +1683,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>76</v>
@@ -1689,22 +1695,22 @@
         <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>76</v>
@@ -1753,13 +1759,13 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -1768,12 +1774,12 @@
         <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1784,35 +1790,35 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>76</v>
@@ -1833,13 +1839,13 @@
         <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>76</v>
@@ -1857,13 +1863,13 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -1872,12 +1878,12 @@
         <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1885,10 +1891,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -1897,27 +1903,27 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R11" t="s" s="2">
         <v>76</v>
@@ -1959,13 +1965,13 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -1974,12 +1980,12 @@
         <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1987,10 +1993,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
@@ -1999,27 +2005,27 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>76</v>
@@ -2061,27 +2067,27 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2089,10 +2095,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>76</v>
@@ -2101,29 +2107,29 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>76</v>
@@ -2165,13 +2171,13 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -2180,7 +2186,7 @@
         <v>105</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -434,7 +434,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>day</t>
+    <t>日</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -428,7 +428,7 @@
     <t>実投与日数単位</t>
   </si>
   <si>
-    <t>「Day」で固定される</t>
+    <t>「日」で固定される</t>
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationrequest-dosageinstruction-usageduration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
